--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE45DB2-E83F-4526-A750-E0A84BB045A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF25B20-BC46-43E5-9B43-6C4F4F8FFAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="177">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -125,13 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSコート早生N24</t>
-    <rPh sb="5" eb="7">
-      <t>ワセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>24－10－10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -225,13 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSコート早生N24+4</t>
-    <rPh sb="5" eb="7">
-      <t>ワセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>28－13－6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -264,10 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSコートコシN20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20－20－12</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,10 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSコートコシN24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>24－12－11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,13 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSコート晩生N27</t>
-    <rPh sb="5" eb="7">
-      <t>オクテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>27－7－7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,13 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSコート蛍N13</t>
-    <rPh sb="5" eb="6">
-      <t>ホタル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>13－9－9</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,16 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直一発K20号</t>
-    <rPh sb="0" eb="3">
-      <t>チョクイッパツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20－12－10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,16 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直一発D20号</t>
-    <rPh sb="0" eb="3">
-      <t>チョクイッパツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●比較的温暖な地域(暖地)で使用すると効果的です</t>
     <rPh sb="1" eb="4">
       <t>ヒカクテキ</t>
@@ -550,16 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直一発D号N24</t>
-    <rPh sb="0" eb="3">
-      <t>チョクイッパツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>24－10－8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -777,10 +711,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エフシーコート464</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>14－16－14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -873,10 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エフシーブレンド600</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>26－10－10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -890,10 +816,6 @@
   </si>
   <si>
     <t>●側条施肥機に使用できるよう、粒形を均一に揃えています</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アミノコート642</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -958,13 +880,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エコ稲想い043</t>
-    <rPh sb="2" eb="4">
-      <t>イネオモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20－4－3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,10 +932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いちほまれ043</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●いちほまれの生育に合わせた肥効設計となっております</t>
     <rPh sb="7" eb="9">
       <t>セイイク</t>
@@ -1131,10 +1042,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あきさかりコート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●あきさかりの生育に合わせた肥効設計となっております</t>
     <rPh sb="7" eb="9">
       <t>セイイク</t>
@@ -1167,13 +1074,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新東ブレンド818</t>
-    <rPh sb="0" eb="2">
-      <t>シントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>28－11－8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1216,19 +1116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水稲元肥一発27号</t>
-    <rPh sb="0" eb="2">
-      <t>スイトウ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>モトゴエイッパツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>140日</t>
     <rPh sb="3" eb="4">
       <t>ニチ</t>
@@ -1278,13 +1165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>こだわりエコ直播ｺｼﾋｶﾘA</t>
-    <rPh sb="6" eb="8">
-      <t>チョクハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●直播向けに最適な肥料です</t>
     <rPh sb="1" eb="4">
       <t>チョクハム</t>
@@ -1440,6 +1320,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>栽培適正</t>
     <rPh sb="0" eb="2">
       <t>サイバイ</t>
@@ -1524,6 +1408,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>１３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>１２</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1617,16 +1505,6 @@
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽がる一発083</t>
-    <rPh sb="0" eb="1">
-      <t>カル</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イッパツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1678,12 +1556,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">13 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12 </t>
-    <phoneticPr fontId="1"/>
+    <t>NSｺｰﾄ 早生N24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NSｺｰﾄ N24+4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NSｺｰﾄ ｺｼN20</t>
+  </si>
+  <si>
+    <t>NSｺｰﾄ ｺｼN24</t>
+  </si>
+  <si>
+    <t>NSｺｰﾄ 晩生N27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NSｺｰﾄ 蛍N13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容器なし、</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直一発K20号</t>
+  </si>
+  <si>
+    <t>直一発D20号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直一発D号 N24</t>
+  </si>
+  <si>
+    <t>ｴﾌｼｰｺｰﾄ464(W)</t>
+  </si>
+  <si>
+    <t>ｴﾌｼｰﾌﾞﾚﾝﾄﾞ600</t>
+  </si>
+  <si>
+    <t>ｱﾐﾉｺｰﾄ642</t>
+  </si>
+  <si>
+    <t>ｴｺ稲想い043(ｺｼ)</t>
+  </si>
+  <si>
+    <t>いちほまれ043</t>
+  </si>
+  <si>
+    <t>あきさかりｺｰﾄ</t>
+  </si>
+  <si>
+    <t>新東ﾌﾞﾚﾝﾄﾞ818</t>
+  </si>
+  <si>
+    <t>水稲元肥一発27号 N27</t>
+  </si>
+  <si>
+    <t>こだわりｴｺ直播ｺｼﾋｶﾘA</t>
+  </si>
+  <si>
+    <t>あとから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽がる一発083</t>
   </si>
 </sst>
 </file>
@@ -1750,11 +1693,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1766,6 +1712,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1774,18 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1811,20 +1748,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1835,6 +1832,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:V28" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:V28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="コード"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="肥料名称"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="成分値" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="P" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="K" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="速効性" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="被覆尿素" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="容量" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="容量:③" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="容量②" dataDxfId="8">
+      <calculatedColumnFormula>CONCATENATE(J2,I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="肥効期間" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="比重" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="形状" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="分類" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="特徴①" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="特徴②" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="特徴③" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="特徴④" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="特徴⑤"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="栽培適正"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="品種"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2100,1653 +2130,1673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1048576"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9" style="5"/>
-    <col min="12" max="12" width="9" style="6"/>
-    <col min="13" max="14" width="9" style="5"/>
-    <col min="15" max="15" width="34.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="50.25" style="7" customWidth="1"/>
-    <col min="17" max="17" width="42.33203125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="25.33203125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="9.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9" style="8"/>
+    <col min="14" max="15" width="9" style="7"/>
+    <col min="16" max="16" width="34.33203125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="50.25" style="9" customWidth="1"/>
+    <col min="18" max="18" width="42.33203125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="25.33203125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="32.83203125" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12</v>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G2" s="4">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f>CONCATENATE(J2,I2)</f>
+        <v>容量:15㎏</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f>CONCATENATE(I2,H2)</f>
+      <c r="M2" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="7" t="str">
+        <f t="shared" ref="K3:K28" si="0">CONCATENATE(J3,I3)</f>
         <v>容量:15㎏</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" t="s">
-        <v>127</v>
+      <c r="O3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" ref="J3:J28" si="0">CONCATENATE(I3,H3)</f>
-        <v>容量:15㎏</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="4">
         <v>8.1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="5">
         <v>11.9</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="5" t="str">
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="4">
         <v>8.1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="5">
         <v>15.9</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="5" t="str">
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="8">
         <v>0.79</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>123</v>
+      <c r="N5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" t="s">
-        <v>125</v>
-      </c>
       <c r="U5" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V5" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="G6" s="4">
         <v>5.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="5">
         <v>21.5</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="5" t="str">
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8">
         <v>0.79</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>123</v>
+      <c r="N6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V6" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="5">
         <v>8.5</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="5" t="str">
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8">
         <v>0.79</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="12">
         <v>7.2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="13">
         <v>12.8</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="17" t="str">
+      <c r="I8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="18">
-        <v>0.84</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="17" t="s">
+      <c r="O8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="U8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="T8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="4">
         <v>7.2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="5">
         <v>12.8</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="5" t="str">
+      <c r="I9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="8">
         <v>0.84</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>123</v>
+      <c r="N9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V9" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="14">
+    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="12">
         <v>6</v>
       </c>
-      <c r="G10" s="15">
+      <c r="H10" s="13">
         <v>18</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="17" t="str">
+      <c r="I10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="16">
         <v>0.83</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="T10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>127</v>
+      <c r="N10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="U10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="4">
         <v>5.9</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="5">
         <v>19.100000000000001</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="5" t="str">
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="T11" t="s">
-        <v>125</v>
-      </c>
-      <c r="U11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="4">
         <v>11.3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="5">
         <v>18.7</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="5" t="str">
+      <c r="I12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="5">
         <v>8</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="5" t="str">
+      <c r="I13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="8">
         <v>0.95</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="T13" t="s">
-        <v>125</v>
-      </c>
-      <c r="U13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="F14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="4">
         <v>8.1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="5">
         <v>12.9</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="5" t="str">
+      <c r="I14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="L14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="8">
         <v>0.84</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>123</v>
+      <c r="N14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="19">
         <v>10.199999999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="5">
         <v>15.8</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="5" t="str">
+      <c r="I15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="L15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="8">
         <v>0.84</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>123</v>
+      <c r="N15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="4">
         <v>6.6</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="5">
         <v>9.4</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="5" t="str">
+      <c r="I16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="L16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="8">
         <v>0.83</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>123</v>
+      <c r="N16" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="T16" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="U16" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V16" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="4">
         <v>2.5</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="5">
         <v>17.5</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="5" t="str">
+      <c r="I17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="L17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="8">
         <v>0.75</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>123</v>
+      <c r="N17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T17" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="U17" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V17" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="5" t="str">
+      <c r="I18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="8">
         <v>0.75</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>123</v>
+      <c r="N18" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="T18" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V18" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="5" t="str">
+      <c r="I19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏・20㎏</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="L19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="8">
         <v>0.85</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>123</v>
+      <c r="N19" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V19" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="4">
         <v>5.9</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="5">
         <v>19.100000000000001</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="5" t="str">
+      <c r="I20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="L20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="8">
         <v>0.82</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>123</v>
+      <c r="N20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="T20" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="U20" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V20" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="5">
         <v>18.7</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="5" t="str">
+      <c r="I21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="8">
         <v>0.8</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>123</v>
+      <c r="N21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="T21" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="U21" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V21" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="4">
         <v>13.9</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="5">
         <v>13.1</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="5" t="str">
+      <c r="I22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
+      <c r="P22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" t="s">
         <v>108</v>
       </c>
-      <c r="T22" t="s">
-        <v>125</v>
-      </c>
-      <c r="U22" t="s">
-        <v>127</v>
+      <c r="V22" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="5">
         <v>1.7</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="5" t="str">
+      <c r="I23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="L23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="8">
         <v>0.78</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>123</v>
+      <c r="N23" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U23" t="s">
+        <v>108</v>
+      </c>
+      <c r="V23" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="H24" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="T23" t="s">
-        <v>125</v>
-      </c>
-      <c r="U23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="G24" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="5" t="str">
+      <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="L24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="8">
         <v>0.79</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>123</v>
+      <c r="N24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" t="s">
+        <v>108</v>
+      </c>
+      <c r="V24" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="T24" t="s">
-        <v>125</v>
-      </c>
-      <c r="U24" t="s">
-        <v>127</v>
-      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="3">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="5">
         <v>17.7</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="5" t="str">
+      <c r="I25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="L25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="8">
         <v>0.77</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>123</v>
+      <c r="N25" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T25" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="U25" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V25" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="3">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="5" t="str">
+      <c r="I26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="L26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="8">
         <v>0.8</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>123</v>
+      <c r="N26" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="T26" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="U26" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="V26" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="4">
         <v>7.7</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="5">
         <v>12.3</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="5" t="str">
+      <c r="I27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:10㎏</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>123</v>
+      <c r="L27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="4">
         <v>7.7</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="5">
         <v>12.3</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="5" t="str">
+      <c r="I28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>123</v>
+      <c r="L28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="1048576" spans="20:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="T1048576" t="s">
-        <v>125</v>
+    <row r="1048576" spans="21:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="U1048576" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF25B20-BC46-43E5-9B43-6C4F4F8FFAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA8B94-8237-4DFC-B977-B9F0E0DEB9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
@@ -1595,18 +1595,12 @@
     <t>直一発D号 N24</t>
   </si>
   <si>
-    <t>ｴﾌｼｰｺｰﾄ464(W)</t>
-  </si>
-  <si>
     <t>ｴﾌｼｰﾌﾞﾚﾝﾄﾞ600</t>
   </si>
   <si>
     <t>ｱﾐﾉｺｰﾄ642</t>
   </si>
   <si>
-    <t>ｴｺ稲想い043(ｺｼ)</t>
-  </si>
-  <si>
     <t>いちほまれ043</t>
   </si>
   <si>
@@ -1616,9 +1610,6 @@
     <t>新東ﾌﾞﾚﾝﾄﾞ818</t>
   </si>
   <si>
-    <t>水稲元肥一発27号 N27</t>
-  </si>
-  <si>
     <t>こだわりｴｺ直播ｺｼﾋｶﾘA</t>
   </si>
   <si>
@@ -1627,6 +1618,18 @@
   </si>
   <si>
     <t>軽がる一発083</t>
+  </si>
+  <si>
+    <t>ｴﾌｼｰｺｰﾄ464</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺ稲想い043ｺｼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水稲元肥一発27号N27</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2133,7 +2136,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>63</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>71</v>
@@ -3290,7 +3293,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -3347,7 +3350,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>85</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
@@ -3521,7 +3524,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
@@ -3581,7 +3584,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
         <v>99</v>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>148</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA8B94-8237-4DFC-B977-B9F0E0DEB9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4D046-69A1-4FEF-8A0E-FFD5FD276E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2136,7 +2136,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4D046-69A1-4FEF-8A0E-FFD5FD276E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D910B3-E5E6-4C9A-8A20-5FDEE7217AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1629,7 +1629,6 @@
   </si>
   <si>
     <t>水稲元肥一発27号N27</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2136,7 +2135,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D910B3-E5E6-4C9A-8A20-5FDEE7217AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D1538-4699-4007-880A-28B56EA4C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40515" yWindow="6000" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
@@ -1624,11 +1624,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｴｺ稲想い043ｺｼ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>水稲元肥一発27号N27</t>
+  </si>
+  <si>
+    <t>ｴｺ稲想い043コシ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D1538-4699-4007-880A-28B56EA4C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6615C95-3DA0-4A0A-B479-7985397A410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40515" yWindow="6000" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
@@ -1218,16 +1218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エコ稲想い043(直播)</t>
-    <rPh sb="2" eb="4">
-      <t>イネオモ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チョクハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●直播栽培向けに設計された肥料です</t>
     <rPh sb="1" eb="3">
       <t>チョクハ</t>
@@ -1624,10 +1614,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水稲元肥一発27号N27</t>
-  </si>
-  <si>
-    <t>ｴｺ稲想い043コシ</t>
+    <t>ｴｺ稲想い043_ｺｼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エコ稲想い043_直播</t>
+    <rPh sb="2" eb="4">
+      <t>イネオモ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカマキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水稲元肥一発27号_N27</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2134,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2161,7 +2162,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2170,28 +2171,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -2218,30 +2219,30 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="4">
         <v>12</v>
@@ -2253,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="7" t="str">
         <f>CONCATENATE(J2,I2)</f>
@@ -2269,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>16</v>
@@ -2278,27 +2279,27 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="4">
         <v>12.2</v>
@@ -2310,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="7" t="str">
         <f t="shared" ref="K3:K28" si="0">CONCATENATE(J3,I3)</f>
@@ -2326,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>19</v>
@@ -2341,27 +2342,27 @@
         <v>22</v>
       </c>
       <c r="U3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="4">
         <v>8.1</v>
@@ -2373,7 +2374,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2389,7 +2390,7 @@
         <v>15</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>25</v>
@@ -2398,27 +2399,27 @@
         <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="4">
         <v>8.1</v>
@@ -2430,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2446,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>25</v>
@@ -2455,27 +2456,27 @@
         <v>28</v>
       </c>
       <c r="U5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="4">
         <v>5.5</v>
@@ -2487,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2503,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>31</v>
@@ -2512,27 +2513,27 @@
         <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -2544,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2560,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>35</v>
@@ -2569,30 +2570,30 @@
         <v>36</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="12">
         <v>7.2</v>
@@ -2604,7 +2605,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2620,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>39</v>
@@ -2631,27 +2632,27 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="U8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="4">
         <v>7.2</v>
@@ -2663,7 +2664,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2679,7 +2680,7 @@
         <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>39</v>
@@ -2688,27 +2689,27 @@
         <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="12">
         <v>6</v>
@@ -2720,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2736,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>39</v>
@@ -2747,10 +2748,10 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="U10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2761,13 +2762,13 @@
         <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="4">
         <v>5.9</v>
@@ -2779,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2795,7 +2796,7 @@
         <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>46</v>
@@ -2810,10 +2811,10 @@
         <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2824,13 +2825,13 @@
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="4">
         <v>11.3</v>
@@ -2842,7 +2843,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2858,7 +2859,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>52</v>
@@ -2870,27 +2871,27 @@
         <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -2902,7 +2903,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2918,7 +2919,7 @@
         <v>15</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>56</v>
@@ -2927,10 +2928,10 @@
         <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -2941,13 +2942,13 @@
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="4">
         <v>8.1</v>
@@ -2959,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2975,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>60</v>
@@ -2987,27 +2988,27 @@
         <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="19">
         <v>10.199999999999999</v>
@@ -3019,7 +3020,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3035,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>64</v>
@@ -3047,27 +3048,27 @@
         <v>66</v>
       </c>
       <c r="U15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16" s="4">
         <v>6.6</v>
@@ -3079,7 +3080,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3095,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>68</v>
@@ -3107,27 +3108,27 @@
         <v>70</v>
       </c>
       <c r="U16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="4">
         <v>2.5</v>
@@ -3139,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3155,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>72</v>
@@ -3167,27 +3168,27 @@
         <v>74</v>
       </c>
       <c r="U17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3199,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3215,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>75</v>
@@ -3224,10 +3225,10 @@
         <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
@@ -3238,13 +3239,13 @@
         <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="4">
         <v>9.8000000000000007</v>
@@ -3256,7 +3257,7 @@
         <v>79</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3272,7 +3273,7 @@
         <v>15</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>80</v>
@@ -3284,27 +3285,27 @@
         <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="4">
         <v>5.9</v>
@@ -3316,7 +3317,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3332,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>83</v>
@@ -3341,27 +3342,27 @@
         <v>84</v>
       </c>
       <c r="U20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="4">
         <v>9.3000000000000007</v>
@@ -3373,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3389,7 +3390,7 @@
         <v>15</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>86</v>
@@ -3398,27 +3399,27 @@
         <v>87</v>
       </c>
       <c r="U21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="4">
         <v>13.9</v>
@@ -3430,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3446,7 +3447,7 @@
         <v>15</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>89</v>
@@ -3458,27 +3459,27 @@
         <v>91</v>
       </c>
       <c r="U22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="4">
         <v>2.2999999999999998</v>
@@ -3490,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3506,7 +3507,7 @@
         <v>15</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>92</v>
@@ -3515,15 +3516,15 @@
         <v>93</v>
       </c>
       <c r="U23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
@@ -3532,13 +3533,13 @@
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3550,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3566,7 +3567,7 @@
         <v>15</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>92</v>
@@ -3575,30 +3576,30 @@
         <v>96</v>
       </c>
       <c r="U24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="4">
         <v>2.2999999999999998</v>
@@ -3610,7 +3611,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3626,42 +3627,42 @@
         <v>15</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>72</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>74</v>
       </c>
       <c r="U25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="4">
         <v>16.600000000000001</v>
@@ -3673,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3689,36 +3690,36 @@
         <v>15</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="U26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G27" s="4">
         <v>7.7</v>
@@ -3727,40 +3728,40 @@
         <v>12.3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:10㎏</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G28" s="4">
         <v>7.7</v>
@@ -3769,28 +3770,28 @@
         <v>12.3</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
       <c r="L28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1048576" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U1048576" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6615C95-3DA0-4A0A-B479-7985397A410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7755AAA7-CFB9-41DA-82F5-1FAC397EE614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1614,21 +1614,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｴｺ稲想い043_ｺｼ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エコ稲想い043_直播</t>
+    <t>ｴｺ稲想い043コシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水稲元肥一発27号N27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エコ稲想い043直播</t>
     <rPh sb="2" eb="4">
       <t>イネオモ</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="8" eb="10">
       <t>ジカマキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水稲元肥一発27号_N27</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2136,7 +2136,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3587,7 +3587,7 @@
         <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7755AAA7-CFB9-41DA-82F5-1FAC397EE614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB1C80-47B8-420C-929E-FAE6C14695F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1614,15 +1614,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｴｺ稲想い043コシ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>水稲元肥一発27号N27</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エコ稲想い043直播</t>
+    <t>ｴｺ稲想い043ｺｼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺ稲想い043直播</t>
     <rPh sb="2" eb="4">
       <t>イネオモ</t>
     </rPh>
@@ -2136,7 +2136,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB1C80-47B8-420C-929E-FAE6C14695F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE08F519-F603-4E58-8C2D-232EC9694929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,12 +1554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NSｺｰﾄ ｺｼN20</t>
-  </si>
-  <si>
-    <t>NSｺｰﾄ ｺｼN24</t>
-  </si>
-  <si>
     <t>NSｺｰﾄ 晩生N27</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1582,53 +1576,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>いちほまれ043</t>
+  </si>
+  <si>
+    <t>あとから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽がる一発083</t>
+  </si>
+  <si>
+    <t>水稲元肥一発27号N27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NSｺｰﾄ ｺｼN20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NSｺｰﾄ ｺｼN24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺ稲想い043(ｺｼ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>直一発D号 N24</t>
-  </si>
-  <si>
-    <t>ｴﾌｼｰﾌﾞﾚﾝﾄﾞ600</t>
-  </si>
-  <si>
-    <t>ｱﾐﾉｺｰﾄ642</t>
-  </si>
-  <si>
-    <t>いちほまれ043</t>
-  </si>
-  <si>
-    <t>あきさかりｺｰﾄ</t>
-  </si>
-  <si>
-    <t>新東ﾌﾞﾚﾝﾄﾞ818</t>
-  </si>
-  <si>
-    <t>こだわりｴｺ直播ｺｼﾋｶﾘA</t>
-  </si>
-  <si>
-    <t>あとから</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽がる一発083</t>
-  </si>
-  <si>
-    <t>ｴﾌｼｰｺｰﾄ464</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水稲元肥一発27号N27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｴｺ稲想い043ｺｼ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｴｺ稲想い043直播</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴﾌｼｰｺｰﾄ464(W)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｺ稲想い043(直播)</t>
     <rPh sb="2" eb="4">
       <t>イネオモ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="9" eb="11">
       <t>ジカマキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴﾌｼｰﾌﾞﾚﾝﾄﾞ600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｱﾐﾉｺｰﾄ642</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あきさかりｺｰﾄ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新東ﾌﾞﾚﾝﾄﾞ818</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こだわりｴｺ直播ｺｼﾋｶﾘA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2136,7 +2144,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2350,7 +2358,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -2407,7 +2415,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2464,7 +2472,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2521,7 +2529,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -2578,10 +2586,10 @@
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>37</v>
@@ -2640,7 +2648,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -2697,7 +2705,7 @@
     </row>
     <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>42</v>
@@ -2879,7 +2887,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -2996,7 +3004,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>63</v>
@@ -3056,7 +3064,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -3116,7 +3124,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
@@ -3176,7 +3184,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>71</v>
@@ -3293,7 +3301,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -3350,7 +3358,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>85</v>
@@ -3407,7 +3415,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3467,7 +3475,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
@@ -3524,7 +3532,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
@@ -3584,10 +3592,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
         <v>171</v>
-      </c>
-      <c r="B25" t="s">
-        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
@@ -3647,7 +3655,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
@@ -3707,7 +3715,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>147</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE08F519-F603-4E58-8C2D-232EC9694929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29BFA54-AFCD-4A50-B1F2-61F13E0A5CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="176">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1562,13 +1562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>容器なし、</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>直一発K20号</t>
   </si>
   <si>
@@ -1577,10 +1570,6 @@
   </si>
   <si>
     <t>いちほまれ043</t>
-  </si>
-  <si>
-    <t>あとから</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>軽がる一発083</t>
@@ -1637,6 +1626,22 @@
   </si>
   <si>
     <t>こだわりｴｺ直播ｺｼﾋｶﾘA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●10kgなので持ち運びが非常に楽になります。</t>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ラク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2143,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2358,7 +2363,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -2415,7 +2420,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2585,11 +2590,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>37</v>
@@ -2648,7 +2650,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -2705,7 +2707,7 @@
     </row>
     <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>42</v>
@@ -2887,7 +2889,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
@@ -3004,7 +3006,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>63</v>
@@ -3064,7 +3066,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -3122,9 +3124,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
@@ -3182,9 +3184,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>71</v>
@@ -3239,7 +3241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -3299,9 +3301,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
@@ -3356,9 +3358,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>85</v>
@@ -3413,9 +3415,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3473,9 +3475,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
@@ -3530,10 +3532,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>163</v>
-      </c>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -3590,12 +3589,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
@@ -3653,10 +3649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>163</v>
-      </c>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>98</v>
       </c>
@@ -3713,9 +3706,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>147</v>
@@ -3754,8 +3747,11 @@
       <c r="O27" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="P27" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>146</v>
       </c>
@@ -3795,6 +3791,9 @@
       </c>
       <c r="O28" s="7" t="s">
         <v>104</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="1048576" spans="21:21" x14ac:dyDescent="0.55000000000000004">

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fcna106\名_名古屋支店\肥料パンフレット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29BFA54-AFCD-4A50-B1F2-61F13E0A5CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="214">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1398,23 +1397,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２１</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1642,13 +1629,284 @@
     <rPh sb="16" eb="17">
       <t>ラク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麦想い384</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>33－8－4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●早期に茎数を確保するように速効性の窒素をしっかりしてと配合して</t>
+    <rPh sb="1" eb="3">
+      <t>ソウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　いますので、充実した穂数の確保が狙えます。</t>
+    <rPh sb="7" eb="9">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ネラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●異なる日数タイプの被覆尿素をﾊﾞﾗﾝｽ良く配合しています。</t>
+    <rPh sb="1" eb="2">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒフク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニョウソ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飼料用米BB344(15Kg)</t>
+  </si>
+  <si>
+    <t>33－4－4</t>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100日</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高窒素BB344(15㎏)</t>
+  </si>
+  <si>
+    <t>15㎏</t>
+  </si>
+  <si>
+    <t>容量:15㎏</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>●多収米・飼料用米品種の多収穫品種の育成に適した組成で生産した水稲一発BB肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●初期から後半にかけて効く速効性肥料と4種類の安定溶出型の被覆尿素とピンポイントに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　溶出する被覆尿素をバランス良くブレンドしております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜ﾘﾝ酸入り566</t>
+  </si>
+  <si>
+    <t>25－6－6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●亜ﾘﾝ酸が配合させており、初期生育の確保に役立ちます。</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●高窒素成分の省力型肥料です。</t>
+    <rPh sb="1" eb="2">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウリョクガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾐﾈｱｯﾌﾟ特号新</t>
+  </si>
+  <si>
+    <t>0‐8‐0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ﾘﾝ酸と微量要素が同時に施肥出来、順調な生育に役立ちます。</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●早期に有効茎を確保する為の速効性窒素、効茎の充実、穂の形成を図る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　時期に効く窒素・穂の充実を図る時期に効く窒素など複数の窒素を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ブレンドしていますので、水稲の生育期間を通じて安定した肥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効を示し、品質の良いお米の生産に役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｴｷｽﾄﾗｺｰﾄ864</t>
+  </si>
+  <si>
+    <t>18‐16‐14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -1851,33 +2109,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:V28" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:V28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:V35"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="コード"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="肥料名称"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="成分値" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="P" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="K" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="速効性" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="被覆尿素" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="容量" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="容量:③" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="容量②" dataDxfId="8">
+    <tableColumn id="1" name="コード"/>
+    <tableColumn id="2" name="肥料名称"/>
+    <tableColumn id="3" name="成分値" dataDxfId="16"/>
+    <tableColumn id="4" name="N" dataDxfId="15"/>
+    <tableColumn id="5" name="P" dataDxfId="14"/>
+    <tableColumn id="6" name="K" dataDxfId="13"/>
+    <tableColumn id="7" name="速効性" dataDxfId="12"/>
+    <tableColumn id="8" name="被覆尿素" dataDxfId="11"/>
+    <tableColumn id="9" name="容量" dataDxfId="10"/>
+    <tableColumn id="10" name="容量:③" dataDxfId="9"/>
+    <tableColumn id="11" name="容量②" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE(J2,I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="肥効期間" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="比重" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="形状" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="分類" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="特徴①" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="特徴②" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="特徴③" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="特徴④" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="特徴⑤"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="栽培適正"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="品種"/>
+    <tableColumn id="12" name="肥効期間" dataDxfId="7"/>
+    <tableColumn id="13" name="比重" dataDxfId="6"/>
+    <tableColumn id="14" name="形状" dataDxfId="5"/>
+    <tableColumn id="15" name="分類" dataDxfId="4"/>
+    <tableColumn id="16" name="特徴①" dataDxfId="3"/>
+    <tableColumn id="17" name="特徴②" dataDxfId="2"/>
+    <tableColumn id="18" name="特徴③" dataDxfId="1"/>
+    <tableColumn id="19" name="特徴④" dataDxfId="0"/>
+    <tableColumn id="20" name="特徴⑤"/>
+    <tableColumn id="21" name="栽培適正"/>
+    <tableColumn id="22" name="品種"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2145,35 +2403,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="7" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
     <col min="14" max="15" width="9" style="7"/>
-    <col min="16" max="16" width="34.33203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="34.375" style="9" customWidth="1"/>
     <col min="17" max="17" width="50.25" style="9" customWidth="1"/>
-    <col min="18" max="18" width="42.33203125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="25.33203125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="32.83203125" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" customWidth="1"/>
+    <col min="18" max="18" width="42.375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="25.375" style="9" customWidth="1"/>
+    <col min="20" max="20" width="32.875" customWidth="1"/>
+    <col min="21" max="21" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2241,9 +2499,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -2298,9 +2556,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2309,10 +2567,10 @@
         <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3" s="4">
         <v>12.2</v>
@@ -2361,9 +2619,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -2375,7 +2633,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="4">
         <v>8.1</v>
@@ -2418,9 +2676,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -2429,10 +2687,10 @@
         <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G5" s="4">
         <v>8.1</v>
@@ -2475,9 +2733,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2486,10 +2744,10 @@
         <v>120</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" s="4">
         <v>5.5</v>
@@ -2532,21 +2790,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -2589,9 +2847,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>37</v>
@@ -2600,7 +2858,7 @@
         <v>119</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>117</v>
@@ -2648,18 +2906,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>117</v>
@@ -2705,9 +2963,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>42</v>
@@ -2719,7 +2977,7 @@
         <v>117</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" s="12">
         <v>6</v>
@@ -2764,7 +3022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -2775,10 +3033,10 @@
         <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G11" s="4">
         <v>5.9</v>
@@ -2827,7 +3085,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -2835,13 +3093,13 @@
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G12" s="4">
         <v>11.3</v>
@@ -2887,21 +3145,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -2944,7 +3202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -2952,13 +3210,13 @@
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4">
         <v>8.1</v>
@@ -3004,15 +3262,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>117</v>
@@ -3064,21 +3322,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4">
         <v>6.6</v>
@@ -3124,9 +3382,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>71</v>
@@ -3135,10 +3393,10 @@
         <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" s="4">
         <v>2.5</v>
@@ -3184,9 +3442,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>71</v>
@@ -3195,10 +3453,10 @@
         <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3241,7 +3499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -3252,7 +3510,7 @@
         <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>117</v>
@@ -3301,21 +3559,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G20" s="4">
         <v>5.9</v>
@@ -3358,9 +3616,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>85</v>
@@ -3369,10 +3627,10 @@
         <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="4">
         <v>9.3000000000000007</v>
@@ -3415,9 +3673,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>29</v>
@@ -3426,10 +3684,10 @@
         <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G22" s="4">
         <v>13.9</v>
@@ -3475,9 +3733,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
@@ -3486,10 +3744,10 @@
         <v>119</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23" s="4">
         <v>2.2999999999999998</v>
@@ -3532,7 +3790,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -3540,13 +3798,13 @@
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3589,9 +3847,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
@@ -3600,10 +3858,10 @@
         <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" s="4">
         <v>2.2999999999999998</v>
@@ -3649,7 +3907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>98</v>
       </c>
@@ -3657,13 +3915,13 @@
         <v>99</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G26" s="4">
         <v>16.600000000000001</v>
@@ -3706,21 +3964,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G27" s="4">
         <v>7.7</v>
@@ -3729,7 +3987,7 @@
         <v>12.3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>110</v>
@@ -3739,33 +3997,39 @@
         <v>容量:10㎏</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>104</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="U27" t="s">
+        <v>107</v>
+      </c>
+      <c r="V27" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G28" s="4">
         <v>7.7</v>
@@ -3774,7 +4038,7 @@
         <v>12.3</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>110</v>
@@ -3784,10 +4048,10 @@
         <v>容量:20㎏</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>104</v>
@@ -3795,9 +4059,350 @@
       <c r="P28" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="U28" t="s">
+        <v>107</v>
+      </c>
+      <c r="V28" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="1048576" spans="21:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="U1048576" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="H29" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f>CONCATENATE(J29,I29)</f>
+        <v>容量:20㎏</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="5">
+        <v>29</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f>CONCATENATE(J30,I30)</f>
+        <v>容量:15㎏</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="U30" t="s">
+        <v>107</v>
+      </c>
+      <c r="V30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="5">
+        <v>29</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="U31" t="s">
+        <v>107</v>
+      </c>
+      <c r="V31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="4">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5">
+        <v>15</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f t="shared" ref="K32:K33" si="1">CONCATENATE(J32,I32)</f>
+        <v>容量:20㎏</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="U32" t="s">
+        <v>107</v>
+      </c>
+      <c r="V32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>容量:15㎏</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="U33" t="s">
+        <v>107</v>
+      </c>
+      <c r="V33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="4">
+        <v>8</v>
+      </c>
+      <c r="H34" s="5">
+        <v>10</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="7" t="str">
+        <f t="shared" ref="K34" si="2">CONCATENATE(J34,I34)</f>
+        <v>容量:15㎏</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="U34" t="s">
+        <v>107</v>
+      </c>
+      <c r="V34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="K35" s="7" t="str">
+        <f t="shared" ref="K35" si="3">CONCATENATE(J35,I35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1048574" spans="21:21" x14ac:dyDescent="0.4">
+      <c r="U1048574" t="s">
         <v>107</v>
       </c>
     </row>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fcna106\名_名古屋支店\肥料パンフレット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A622C9-F53D-444D-9491-6654A4D16B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="10590"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="219">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -146,77 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●初期肥効の充実は、茎数の確保を促し、収量の安定化・増加につながる</t>
-    <rPh sb="1" eb="3">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュウジツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケイスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクホ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>アンテイカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●3種の被覆が分げつ期や幼穂形成期に発現し、茎や穂の充実に効果的です</t>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒフク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ヨウスイケイセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>クキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジュウジツ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>28－13－6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,13 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フロンティアコート25号</t>
-    <rPh sb="11" eb="12">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25－15－9</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -676,40 +599,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●緩効性を多く配合しており、後半の肥効を重視し穂や粒数の充実が期待できます</t>
-    <rPh sb="1" eb="4">
-      <t>カンコウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウハン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウシ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツブスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジュウジツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>14－16－14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1660,50 +1549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●早期に茎数を確保するように速効性の窒素をしっかりしてと配合して</t>
-    <rPh sb="1" eb="3">
-      <t>ソウキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクホ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソッコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ハイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　いますので、充実した穂数の確保が狙えます。</t>
-    <rPh sb="7" eb="9">
-      <t>ジュウジツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクホ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ネラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●異なる日数タイプの被覆尿素をﾊﾞﾗﾝｽ良く配合しています。</t>
     <rPh sb="1" eb="2">
       <t>コト</t>
@@ -1755,18 +1600,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>●多収米・飼料用米品種の多収穫品種の育成に適した組成で生産した水稲一発BB肥料です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●初期から後半にかけて効く速効性肥料と4種類の安定溶出型の被覆尿素とピンポイントに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　溶出する被覆尿素をバランス良くブレンドしております。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>亜ﾘﾝ酸入り566</t>
   </si>
   <si>
@@ -1868,22 +1701,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●早期に有効茎を確保する為の速効性窒素、効茎の充実、穂の形成を図る</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　時期に効く窒素・穂の充実を図る時期に効く窒素など複数の窒素を</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ブレンドしていますので、水稲の生育期間を通じて安定した肥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　効を示し、品質の良いお米の生産に役立ちます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｴｷｽﾄﾗｺｰﾄ864</t>
   </si>
   <si>
@@ -1900,13 +1717,217 @@
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●初期肥効の充実は、茎数の確保を促し、収量の安定化・増加に</t>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>アンテイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　つながる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効果的です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●3種の被覆が分げつ期や幼穂形成期に発現し、茎や穂の充実に</t>
+    <rPh sb="2" eb="3">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒフク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ヨウスイケイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●緩効性を多く配合しており、後半の肥効を重視し穂や粒数の充実が</t>
+    <rPh sb="1" eb="4">
+      <t>カンコウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツブスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待できます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●早期に茎数を確保するように速効性の窒素をしっかりしてと配合</t>
+    <rPh sb="1" eb="3">
+      <t>ソウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　していますので、充実した穂数の確保が狙えます。</t>
+    <rPh sb="9" eb="11">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●多収米・飼料用米品種の多収穫品種の育成に適した組成で生産した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　水稲一発BB肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●初期から後半にかけて効く速効性肥料と4種類の安定溶出型の</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　被覆尿素とピンポイントに溶出する被覆尿素をバランス良く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ブレンドしております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●早期に有効茎を確保する為の速効性窒素、効茎の充実、穂の形成を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　図る時期に効く窒素・穂の充実を図る時期に効く窒素など複数の</t>
+    <rPh sb="1" eb="2">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　窒素をブレンドしていますので、水稲の生育期間を通じて安定した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　肥効を示し、品質の良いお米の生産に役立ちます。</t>
+    <rPh sb="1" eb="2">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾌﾛﾝﾃｨｱｺｰﾄ25号</t>
+    <rPh sb="11" eb="12">
+      <t>ゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -2109,33 +2130,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:V35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:V35" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:V35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="コード"/>
-    <tableColumn id="2" name="肥料名称"/>
-    <tableColumn id="3" name="成分値" dataDxfId="16"/>
-    <tableColumn id="4" name="N" dataDxfId="15"/>
-    <tableColumn id="5" name="P" dataDxfId="14"/>
-    <tableColumn id="6" name="K" dataDxfId="13"/>
-    <tableColumn id="7" name="速効性" dataDxfId="12"/>
-    <tableColumn id="8" name="被覆尿素" dataDxfId="11"/>
-    <tableColumn id="9" name="容量" dataDxfId="10"/>
-    <tableColumn id="10" name="容量:③" dataDxfId="9"/>
-    <tableColumn id="11" name="容量②" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="コード"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="肥料名称"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="成分値" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="P" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="K" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="速効性" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="被覆尿素" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="容量" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="容量:③" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="容量②" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE(J2,I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="肥効期間" dataDxfId="7"/>
-    <tableColumn id="13" name="比重" dataDxfId="6"/>
-    <tableColumn id="14" name="形状" dataDxfId="5"/>
-    <tableColumn id="15" name="分類" dataDxfId="4"/>
-    <tableColumn id="16" name="特徴①" dataDxfId="3"/>
-    <tableColumn id="17" name="特徴②" dataDxfId="2"/>
-    <tableColumn id="18" name="特徴③" dataDxfId="1"/>
-    <tableColumn id="19" name="特徴④" dataDxfId="0"/>
-    <tableColumn id="20" name="特徴⑤"/>
-    <tableColumn id="21" name="栽培適正"/>
-    <tableColumn id="22" name="品種"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="肥効期間" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="比重" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="形状" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="分類" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="特徴①" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="特徴②" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="特徴③" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="特徴④" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="特徴⑤"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="栽培適正"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="品種"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2403,37 +2424,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="7" customWidth="1"/>
     <col min="13" max="13" width="9" style="8"/>
     <col min="14" max="15" width="9" style="7"/>
-    <col min="16" max="16" width="34.375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="50.25" style="9" customWidth="1"/>
-    <col min="18" max="18" width="42.375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="25.375" style="9" customWidth="1"/>
-    <col min="20" max="20" width="32.875" customWidth="1"/>
-    <col min="21" max="21" width="9.875" customWidth="1"/>
+    <col min="16" max="19" width="58.58203125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="58.58203125" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2442,28 +2460,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -2490,30 +2508,30 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G2" s="4">
         <v>12</v>
@@ -2525,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K2" s="7" t="str">
         <f>CONCATENATE(J2,I2)</f>
@@ -2541,36 +2559,42 @@
         <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="U2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G3" s="4">
         <v>12.2</v>
@@ -2582,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K3" s="7" t="str">
         <f t="shared" ref="K3:K28" si="0">CONCATENATE(J3,I3)</f>
@@ -2598,42 +2622,42 @@
         <v>15</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="U3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4">
         <v>8.1</v>
@@ -2645,14 +2669,14 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="8">
         <v>0.84</v>
@@ -2661,36 +2685,36 @@
         <v>15</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U4" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="4">
         <v>8.1</v>
@@ -2702,14 +2726,14 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="8">
         <v>0.79</v>
@@ -2718,36 +2742,36 @@
         <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G6" s="4">
         <v>5.5</v>
@@ -2759,14 +2783,14 @@
         <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8">
         <v>0.79</v>
@@ -2775,36 +2799,36 @@
         <v>15</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" t="s">
-        <v>107</v>
-      </c>
-      <c r="V6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -2816,14 +2840,14 @@
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8">
         <v>0.79</v>
@@ -2832,36 +2856,36 @@
         <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="12">
         <v>7.2</v>
@@ -2870,10 +2894,10 @@
         <v>12.8</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -2889,38 +2913,38 @@
         <v>15</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="U8" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G9" s="4">
         <v>7.2</v>
@@ -2929,17 +2953,17 @@
         <v>12.8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="8">
         <v>0.84</v>
@@ -2948,36 +2972,36 @@
         <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G10" s="12">
         <v>6</v>
@@ -2989,14 +3013,14 @@
         <v>13</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="16">
         <v>0.83</v>
@@ -3005,38 +3029,38 @@
         <v>15</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="U10" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G11" s="4">
         <v>5.9</v>
@@ -3048,7 +3072,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3064,42 +3088,42 @@
         <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="U11" t="s">
+        <v>103</v>
+      </c>
+      <c r="V11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G12" s="4">
         <v>11.3</v>
@@ -3108,10 +3132,10 @@
         <v>18.7</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3127,39 +3151,42 @@
         <v>15</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>54</v>
+        <v>205</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="U12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -3168,17 +3195,17 @@
         <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13" s="8">
         <v>0.95</v>
@@ -3187,36 +3214,36 @@
         <v>15</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G14" s="4">
         <v>8.1</v>
@@ -3228,14 +3255,14 @@
         <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M14" s="8">
         <v>0.84</v>
@@ -3244,39 +3271,39 @@
         <v>15</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G15" s="19">
         <v>10.199999999999999</v>
@@ -3285,17 +3312,17 @@
         <v>15.8</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" s="8">
         <v>0.84</v>
@@ -3304,39 +3331,39 @@
         <v>15</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G16" s="4">
         <v>6.6</v>
@@ -3348,14 +3375,14 @@
         <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" s="8">
         <v>0.83</v>
@@ -3364,39 +3391,39 @@
         <v>15</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G17" s="4">
         <v>2.5</v>
@@ -3408,14 +3435,14 @@
         <v>13</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M17" s="8">
         <v>0.75</v>
@@ -3424,39 +3451,39 @@
         <v>15</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3468,14 +3495,14 @@
         <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M18" s="8">
         <v>0.75</v>
@@ -3484,36 +3511,36 @@
         <v>15</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" s="4">
         <v>9.8000000000000007</v>
@@ -3522,17 +3549,17 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏・20㎏</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19" s="8">
         <v>0.85</v>
@@ -3541,39 +3568,39 @@
         <v>15</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G20" s="4">
         <v>5.9</v>
@@ -3585,14 +3612,14 @@
         <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20" s="8">
         <v>0.82</v>
@@ -3601,36 +3628,36 @@
         <v>15</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G21" s="4">
         <v>9.3000000000000007</v>
@@ -3642,14 +3669,14 @@
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M21" s="8">
         <v>0.8</v>
@@ -3658,36 +3685,36 @@
         <v>15</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G22" s="4">
         <v>13.9</v>
@@ -3699,14 +3726,14 @@
         <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M22" s="8">
         <v>0.83</v>
@@ -3715,39 +3742,39 @@
         <v>15</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G23" s="4">
         <v>2.2999999999999998</v>
@@ -3759,14 +3786,14 @@
         <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M23" s="8">
         <v>0.78</v>
@@ -3775,36 +3802,36 @@
         <v>15</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3816,14 +3843,14 @@
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M24" s="8">
         <v>0.79</v>
@@ -3832,36 +3859,36 @@
         <v>15</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q24" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="U24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G25" s="4">
         <v>2.2999999999999998</v>
@@ -3873,14 +3900,14 @@
         <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M25" s="8">
         <v>0.77</v>
@@ -3889,39 +3916,39 @@
         <v>15</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G26" s="4">
         <v>16.600000000000001</v>
@@ -3933,14 +3960,14 @@
         <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:15㎏</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M26" s="8">
         <v>0.8</v>
@@ -3949,36 +3976,36 @@
         <v>15</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G27" s="4">
         <v>7.7</v>
@@ -3987,49 +4014,49 @@
         <v>12.3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:10㎏</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="U27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G28" s="4">
         <v>7.7</v>
@@ -4038,49 +4065,49 @@
         <v>12.3</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>容量:20㎏</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G29" s="4">
         <v>10.4</v>
@@ -4089,10 +4116,10 @@
         <v>22.6</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K29" s="7" t="str">
         <f>CONCATENATE(J29,I29)</f>
@@ -4102,39 +4129,39 @@
         <v>15</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="U29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -4146,14 +4173,14 @@
         <v>13</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="str">
         <f>CONCATENATE(J30,I30)</f>
         <v>容量:15㎏</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M30" s="8">
         <v>0.76</v>
@@ -4162,39 +4189,45 @@
         <v>15</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>194</v>
+        <v>211</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="T30" t="s">
+        <v>213</v>
       </c>
       <c r="U30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -4203,16 +4236,16 @@
         <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M31" s="8">
         <v>0.76</v>
@@ -4221,39 +4254,45 @@
         <v>15</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>194</v>
+        <v>211</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="T31" t="s">
+        <v>213</v>
       </c>
       <c r="U31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G32" s="4">
         <v>10</v>
@@ -4262,58 +4301,58 @@
         <v>15</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K32" s="7" t="str">
         <f t="shared" ref="K32:K33" si="1">CONCATENATE(J32,I32)</f>
         <v>容量:20㎏</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="P32" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="U32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K33" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4323,33 +4362,33 @@
         <v>15</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="U33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
@@ -4358,52 +4397,53 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K34" s="7" t="str">
         <f t="shared" ref="K34" si="2">CONCATENATE(J34,I34)</f>
         <v>容量:15㎏</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>208</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="T34" s="9"/>
       <c r="U34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" s="7" t="str">
         <f t="shared" ref="K35" si="3">CONCATENATE(J35,I35)</f>
         <v/>
       </c>
     </row>
-    <row r="1048574" spans="21:21" x14ac:dyDescent="0.4">
+    <row r="1048574" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U1048574" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A622C9-F53D-444D-9491-6654A4D16B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119A6D7-E5C4-4C3B-9CD0-DFB32697E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="235">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -401,28 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●比較的温暖な地域(暖地)で使用すると効果的です</t>
-    <rPh sb="1" eb="4">
-      <t>ヒカクテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オンダン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ダンチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>コウカテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>24－10－8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1920,6 +1898,121 @@
     <t>ﾌﾛﾝﾃｨｱｺｰﾄ25号</t>
     <rPh sb="11" eb="12">
       <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:20㎏</t>
+  </si>
+  <si>
+    <t>容量:15㎏ 比重:0.81</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.79</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.84</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:20㎏　比重:0.84</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●廃止予定</t>
+    <rPh sb="1" eb="3">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.83</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.81</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:20㎏　比重:0.95</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15･20㎏　比重:0.84</t>
+    <rPh sb="10" eb="12">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.75</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15･20㎏　比重:0.85</t>
+    <rPh sb="10" eb="12">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.80</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.78</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.77</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:15㎏　比重:0.76</t>
+    <rPh sb="7" eb="9">
+      <t>ヒジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2427,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2451,7 +2544,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2460,28 +2553,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -2508,30 +2601,30 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4">
         <v>12</v>
@@ -2543,11 +2636,10 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="7" t="str">
-        <f>CONCATENATE(J2,I2)</f>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
@@ -2559,42 +2651,42 @@
         <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="U2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="4">
         <v>12.2</v>
@@ -2606,11 +2698,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="shared" ref="K3:K28" si="0">CONCATENATE(J3,I3)</f>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -2622,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>17</v>
@@ -2637,27 +2728,27 @@
         <v>20</v>
       </c>
       <c r="U3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="4">
         <v>8.1</v>
@@ -2669,14 +2760,13 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="M4" s="8">
         <v>0.84</v>
@@ -2685,7 +2775,7 @@
         <v>15</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>23</v>
@@ -2694,27 +2784,27 @@
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="4">
         <v>8.1</v>
@@ -2726,11 +2816,10 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2742,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>23</v>
@@ -2751,27 +2840,27 @@
         <v>26</v>
       </c>
       <c r="U5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="4">
         <v>5.5</v>
@@ -2783,11 +2872,10 @@
         <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>28</v>
@@ -2799,7 +2887,7 @@
         <v>15</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>29</v>
@@ -2808,27 +2896,27 @@
         <v>30</v>
       </c>
       <c r="U6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -2840,11 +2928,10 @@
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>32</v>
@@ -2856,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>33</v>
@@ -2865,27 +2952,27 @@
         <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="12">
         <v>7.2</v>
@@ -2897,11 +2984,10 @@
         <v>36</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>14</v>
@@ -2913,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>37</v>
@@ -2924,27 +3010,27 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="U8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="4">
         <v>7.2</v>
@@ -2956,11 +3042,10 @@
         <v>36</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>28</v>
@@ -2972,36 +3057,33 @@
         <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="U9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="12">
         <v>6</v>
@@ -3013,11 +3095,10 @@
         <v>13</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>28</v>
@@ -3029,38 +3110,38 @@
         <v>15</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="U10" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="4">
         <v>5.9</v>
@@ -3072,11 +3153,10 @@
         <v>13</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>14</v>
@@ -3088,42 +3168,42 @@
         <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G12" s="4">
         <v>11.3</v>
@@ -3135,11 +3215,10 @@
         <v>36</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>14</v>
@@ -3151,42 +3230,42 @@
         <v>15</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="R12" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="U12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -3198,11 +3277,10 @@
         <v>36</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>32</v>
@@ -3214,36 +3292,36 @@
         <v>15</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="U13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="4">
         <v>8.1</v>
@@ -3255,11 +3333,10 @@
         <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>32</v>
@@ -3271,39 +3348,39 @@
         <v>15</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="U14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="19">
         <v>10.199999999999999</v>
@@ -3315,11 +3392,10 @@
         <v>36</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>32</v>
@@ -3331,39 +3407,39 @@
         <v>15</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R15" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="U15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="4">
         <v>6.6</v>
@@ -3375,11 +3451,10 @@
         <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -3391,39 +3466,39 @@
         <v>15</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="R16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="U16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="4">
         <v>2.5</v>
@@ -3435,11 +3510,10 @@
         <v>13</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3451,39 +3525,39 @@
         <v>15</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="R17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="U17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3495,11 +3569,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -3511,36 +3584,36 @@
         <v>15</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="U18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="4">
         <v>9.8000000000000007</v>
@@ -3549,14 +3622,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏・20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>22</v>
@@ -3568,39 +3640,39 @@
         <v>15</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="R19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="U19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="4">
         <v>5.9</v>
@@ -3612,11 +3684,10 @@
         <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -3628,36 +3699,36 @@
         <v>15</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="U20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="4">
         <v>9.3000000000000007</v>
@@ -3669,11 +3740,10 @@
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>22</v>
@@ -3685,36 +3755,36 @@
         <v>15</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q21" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="U21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4">
         <v>13.9</v>
@@ -3726,14 +3796,13 @@
         <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="8">
         <v>0.83</v>
@@ -3742,39 +3811,39 @@
         <v>15</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="U22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="4">
         <v>2.2999999999999998</v>
@@ -3786,11 +3855,10 @@
         <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>22</v>
@@ -3802,36 +3870,36 @@
         <v>15</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Q23" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="U23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3843,11 +3911,10 @@
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>22</v>
@@ -3859,36 +3926,36 @@
         <v>15</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="4">
         <v>2.2999999999999998</v>
@@ -3900,11 +3967,10 @@
         <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>22</v>
@@ -3916,39 +3982,39 @@
         <v>15</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="4">
         <v>16.600000000000001</v>
@@ -3960,11 +4026,10 @@
         <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>22</v>
@@ -3976,36 +4041,36 @@
         <v>15</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="U26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G27" s="4">
         <v>7.7</v>
@@ -4014,49 +4079,48 @@
         <v>12.3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:10㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="N27" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="O27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G28" s="4">
         <v>7.7</v>
@@ -4065,49 +4129,48 @@
         <v>12.3</v>
       </c>
       <c r="I28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>容量:20㎏</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="N28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="N28" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="4">
         <v>10.4</v>
@@ -4119,49 +4182,48 @@
         <v>36</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f>CONCATENATE(J29,I29)</f>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P29" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="Q29" s="9" t="s">
-        <v>208</v>
-      </c>
       <c r="R29" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -4173,14 +4235,13 @@
         <v>13</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f>CONCATENATE(J30,I30)</f>
-        <v>容量:15㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M30" s="8">
         <v>0.76</v>
@@ -4189,45 +4250,45 @@
         <v>15</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P30" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="S30" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="T30" t="s">
         <v>212</v>
       </c>
-      <c r="T30" t="s">
-        <v>213</v>
-      </c>
       <c r="U30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -4236,16 +4297,16 @@
         <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M31" s="8">
         <v>0.76</v>
@@ -4254,45 +4315,45 @@
         <v>15</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P31" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q31" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="R31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="S31" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="T31" t="s">
         <v>212</v>
       </c>
-      <c r="T31" t="s">
-        <v>213</v>
-      </c>
       <c r="U31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G32" s="4">
         <v>10</v>
@@ -4304,91 +4365,89 @@
         <v>36</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="7" t="str">
-        <f t="shared" ref="K32:K33" si="1">CONCATENATE(J32,I32)</f>
-        <v>容量:20㎏</v>
+        <v>105</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P32" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="U32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I33" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>容量:15㎏</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
@@ -4397,53 +4456,52 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" s="7" t="str">
-        <f t="shared" ref="K34" si="2">CONCATENATE(J34,I34)</f>
-        <v>容量:15㎏</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" s="7" t="str">
-        <f t="shared" ref="K35" si="3">CONCATENATE(J35,I35)</f>
+        <f t="shared" ref="K35" si="0">CONCATENATE(J35,I35)</f>
         <v/>
       </c>
     </row>
     <row r="1048574" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U1048574" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3119A6D7-E5C4-4C3B-9CD0-DFB32697E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FBF83-2BC5-4EDC-A8EE-AACD5820BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="236">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -2013,6 +2013,28 @@
     <t>容量:15㎏　比重:0.76</t>
     <rPh sb="7" eb="9">
       <t>ヒジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●稲想い121の北陸近畿クボタ京都向け</t>
+    <rPh sb="1" eb="2">
+      <t>イネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホクリク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2520,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4494,9 +4516,56 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="K35" s="7" t="str">
-        <f t="shared" ref="K35" si="0">CONCATENATE(J35,I35)</f>
-        <v/>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="U35" t="s">
+        <v>102</v>
+      </c>
+      <c r="V35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="1048574" spans="21:21" x14ac:dyDescent="0.55000000000000004">

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FBF83-2BC5-4EDC-A8EE-AACD5820BED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F395F1D1-0A08-458E-8185-D4C049C3EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="238">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -2035,6 +2035,23 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水稲一発BB121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●JA越前たけふ出荷銘柄</t>
+    <rPh sb="3" eb="5">
+      <t>エチゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイガラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2543,7 +2560,7 @@
   <dimension ref="A1:V1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3614,6 +3631,9 @@
       <c r="Q18" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="R18" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="U18" t="s">
         <v>102</v>
       </c>
@@ -3729,6 +3749,9 @@
       <c r="Q20" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="R20" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="U20" t="s">
         <v>102</v>
       </c>
@@ -3900,6 +3923,9 @@
       <c r="Q23" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="R23" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="U23" t="s">
         <v>102</v>
       </c>
@@ -3956,6 +3982,9 @@
       <c r="Q24" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="R24" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="U24" t="s">
         <v>102</v>
       </c>
@@ -4071,6 +4100,9 @@
       <c r="Q26" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="R26" s="9" t="s">
+        <v>237</v>
+      </c>
       <c r="U26" t="s">
         <v>102</v>
       </c>
@@ -4517,7 +4549,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F395F1D1-0A08-458E-8185-D4C049C3EEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6587BA-B057-4A68-A223-677879B5727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="237">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1281,10 +1281,6 @@
   </si>
   <si>
     <t>25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３３</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2559,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2651,7 +2647,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -2678,7 +2674,7 @@
         <v>105</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
@@ -2693,16 +2689,16 @@
         <v>99</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="U2" t="s">
         <v>102</v>
@@ -2713,7 +2709,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -2722,10 +2718,10 @@
         <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="4">
         <v>12.2</v>
@@ -2740,7 +2736,7 @@
         <v>105</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -2775,7 +2771,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -2787,7 +2783,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4">
         <v>8.1</v>
@@ -2802,10 +2798,10 @@
         <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M4" s="8">
         <v>0.84</v>
@@ -2831,7 +2827,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2840,10 +2836,10 @@
         <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="4">
         <v>8.1</v>
@@ -2858,7 +2854,7 @@
         <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2887,7 +2883,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -2896,10 +2892,10 @@
         <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="4">
         <v>5.5</v>
@@ -2914,7 +2910,7 @@
         <v>105</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>28</v>
@@ -2943,19 +2939,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -2970,7 +2966,7 @@
         <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>32</v>
@@ -2999,7 +2995,7 @@
     </row>
     <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>35</v>
@@ -3008,7 +3004,7 @@
         <v>114</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>112</v>
@@ -3026,7 +3022,7 @@
         <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>14</v>
@@ -3057,7 +3053,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -3066,7 +3062,7 @@
         <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
@@ -3084,7 +3080,7 @@
         <v>105</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>28</v>
@@ -3099,7 +3095,7 @@
         <v>99</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U9" t="s">
         <v>102</v>
@@ -3110,7 +3106,7 @@
     </row>
     <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>39</v>
@@ -3122,7 +3118,7 @@
         <v>112</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="12">
         <v>6</v>
@@ -3137,7 +3133,7 @@
         <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>28</v>
@@ -3168,7 +3164,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
@@ -3177,10 +3173,10 @@
         <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="4">
         <v>5.9</v>
@@ -3195,7 +3191,7 @@
         <v>105</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>14</v>
@@ -3239,10 +3235,10 @@
         <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G12" s="4">
         <v>11.3</v>
@@ -3257,7 +3253,7 @@
         <v>105</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>14</v>
@@ -3278,10 +3274,10 @@
         <v>49</v>
       </c>
       <c r="R12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="U12" t="s">
         <v>102</v>
@@ -3292,7 +3288,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
@@ -3319,7 +3315,7 @@
         <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>32</v>
@@ -3354,13 +3350,13 @@
         <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="4">
         <v>8.1</v>
@@ -3375,7 +3371,7 @@
         <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>32</v>
@@ -3407,7 +3403,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>58</v>
@@ -3434,7 +3430,7 @@
         <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>32</v>
@@ -3466,7 +3462,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>62</v>
@@ -3478,7 +3474,7 @@
         <v>117</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="4">
         <v>6.6</v>
@@ -3493,7 +3489,7 @@
         <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>22</v>
@@ -3525,7 +3521,7 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>66</v>
@@ -3534,10 +3530,10 @@
         <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="4">
         <v>2.5</v>
@@ -3552,7 +3548,7 @@
         <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3584,7 +3580,7 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>66</v>
@@ -3593,10 +3589,10 @@
         <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3611,7 +3607,7 @@
         <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -3632,7 +3628,7 @@
         <v>71</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U18" t="s">
         <v>102</v>
@@ -3652,7 +3648,7 @@
         <v>114</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>112</v>
@@ -3670,7 +3666,7 @@
         <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>22</v>
@@ -3702,7 +3698,7 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
@@ -3711,10 +3707,10 @@
         <v>120</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="4">
         <v>5.9</v>
@@ -3729,7 +3725,7 @@
         <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -3750,7 +3746,7 @@
         <v>79</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U20" t="s">
         <v>102</v>
@@ -3761,7 +3757,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>80</v>
@@ -3770,10 +3766,10 @@
         <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="4">
         <v>9.3000000000000007</v>
@@ -3788,7 +3784,7 @@
         <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>22</v>
@@ -3817,7 +3813,7 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>27</v>
@@ -3826,10 +3822,10 @@
         <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="4">
         <v>13.9</v>
@@ -3844,7 +3840,7 @@
         <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>83</v>
@@ -3876,7 +3872,7 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>66</v>
@@ -3885,10 +3881,10 @@
         <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4">
         <v>2.2999999999999998</v>
@@ -3903,7 +3899,7 @@
         <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>22</v>
@@ -3924,7 +3920,7 @@
         <v>88</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U23" t="s">
         <v>102</v>
@@ -3944,10 +3940,10 @@
         <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3962,7 +3958,7 @@
         <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>22</v>
@@ -3983,7 +3979,7 @@
         <v>91</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U24" t="s">
         <v>102</v>
@@ -3994,7 +3990,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>66</v>
@@ -4003,10 +3999,10 @@
         <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="4">
         <v>2.2999999999999998</v>
@@ -4021,7 +4017,7 @@
         <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>22</v>
@@ -4059,13 +4055,13 @@
         <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="4">
         <v>16.600000000000001</v>
@@ -4080,7 +4076,7 @@
         <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>22</v>
@@ -4101,7 +4097,7 @@
         <v>96</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U26" t="s">
         <v>102</v>
@@ -4112,19 +4108,19 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G27" s="4">
         <v>7.7</v>
@@ -4133,25 +4129,25 @@
         <v>12.3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>99</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U27" t="s">
         <v>102</v>
@@ -4162,19 +4158,19 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="G28" s="4">
         <v>7.7</v>
@@ -4183,19 +4179,19 @@
         <v>12.3</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>99</v>
@@ -4212,19 +4208,19 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="4">
         <v>10.4</v>
@@ -4239,7 +4235,7 @@
         <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>15</v>
@@ -4248,13 +4244,13 @@
         <v>99</v>
       </c>
       <c r="P29" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="Q29" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="R29" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U29" t="s">
         <v>102</v>
@@ -4265,19 +4261,19 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -4292,10 +4288,10 @@
         <v>105</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M30" s="8">
         <v>0.76</v>
@@ -4307,19 +4303,19 @@
         <v>99</v>
       </c>
       <c r="P30" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="S30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="T30" t="s">
         <v>211</v>
-      </c>
-      <c r="T30" t="s">
-        <v>212</v>
       </c>
       <c r="U30" t="s">
         <v>102</v>
@@ -4330,19 +4326,19 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -4351,16 +4347,16 @@
         <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M31" s="8">
         <v>0.76</v>
@@ -4369,22 +4365,22 @@
         <v>15</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q31" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="R31" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="S31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="T31" t="s">
         <v>211</v>
-      </c>
-      <c r="T31" t="s">
-        <v>212</v>
       </c>
       <c r="U31" t="s">
         <v>102</v>
@@ -4395,19 +4391,19 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G32" s="4">
         <v>10</v>
@@ -4422,22 +4418,22 @@
         <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="U32" t="s">
         <v>102</v>
@@ -4448,37 +4444,37 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U33" t="s">
         <v>102</v>
@@ -4489,19 +4485,19 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
@@ -4510,34 +4506,34 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" t="s">
@@ -4549,19 +4545,19 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="4">
         <v>8.1</v>
@@ -4576,7 +4572,7 @@
         <v>105</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>32</v>
@@ -4591,7 +4587,7 @@
         <v>99</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U35" t="s">
         <v>102</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6587BA-B057-4A68-A223-677879B5727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E7650-080E-4A27-A2C2-A3AD0720A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="230">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -151,34 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●通常のNSコートよりさらに高窒素</t>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コウチッソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●速効性と３種の被覆により、安定的な肥効が期待できます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●追肥を施すことで、穂の充実を高め、増収が見込めます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●側条施肥機に使用できるよう、粒形を均一に揃えています</t>
-    <rPh sb="15" eb="16">
-      <t>リュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20－20－12</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -203,54 +175,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●窒素成分とリン酸が多く健全な生育を促進</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンゼン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソクシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>24－12－11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●窒素成分が高いことで元気な稲づくりに貢献します</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イネ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウケン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -265,47 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●通常のNSコートに比べ後半の肥効を重視した肥料です</t>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウハン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュウシ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●高窒素成分で省力的施肥が可能です</t>
-    <rPh sb="1" eb="4">
-      <t>コウチッソ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショウリョクテキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セヒ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>13－9－9</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,47 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●良食味米に適した肥料</t>
-    <rPh sb="1" eb="3">
-      <t>リョウショク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●初期生育が充実するよう、有機体・速効性窒素をバランスよく配合</t>
-    <rPh sb="1" eb="5">
-      <t>ショキセイイク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュウジツ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ユウキタイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20－12－10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -379,134 +222,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●比較的冷涼な地域(寒地)で使用すると効果的です</t>
-    <rPh sb="1" eb="4">
-      <t>ヒカクテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レイリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>コウカテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>24－10－8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●比較的温暖で特に高温となる地域で使用すると効果的です</t>
-    <rPh sb="1" eb="4">
-      <t>ヒカクテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オンダン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウオン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>コウカテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25－15－9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●速効性と緩効性タイプの被覆肥料を配合</t>
-    <rPh sb="1" eb="4">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カンコウセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒフク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒリョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●特に初期・中期の生育が旺盛になるよう設計しております</t>
-    <rPh sb="1" eb="2">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チュウキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オウセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●窒素成分が高く、施用量が少なくなるので経済的です</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ケイザイテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●重さが15㎏なので運びやすい</t>
-    <rPh sb="1" eb="2">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハコ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -524,95 +244,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●窒素が高い為、投入量の削減や労力の軽減が可能です</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>トウニュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクゲン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ロウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケイゲン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●リン酸は根圏の発達を促し、樹勢の維持や向上につながります</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コンケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッタツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジュセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>14－16－14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●緩やかな肥効で後半まで窒素が持続</t>
-    <rPh sb="1" eb="2">
-      <t>ユル</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウハン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●リン酸を高くすることで、生育を促進</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソクシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -627,206 +259,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●重さが15㎏で、労力軽減</t>
-    <rPh sb="1" eb="2">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ロウリョクケイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●穂肥期にしっかり肥効が発現</t>
-    <rPh sb="1" eb="3">
-      <t>ホゴエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●側条施肥に対応できるよう粒径を揃えてあります。</t>
-    <rPh sb="1" eb="5">
-      <t>ソクジョウセヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>リュウケイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ソロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>26－10－10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●速効性窒素と複数のに吸うタイプの被覆尿素を配合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●高窒素成分の省力型肥料</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●側条施肥機に使用できるよう、粒形を均一に揃えています</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>16－14－12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●有機態窒素と緩効態窒素がバランスよく含まれております</t>
-    <rPh sb="1" eb="3">
-      <t>ユウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●有機質肥料を含み食味向上が期待できます</t>
-    <rPh sb="1" eb="6">
-      <t>ユウキシツヒリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ショクミコウジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●有機質を含むため環境にやさしい肥料となっています</t>
-    <rPh sb="1" eb="4">
-      <t>ユウキシツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20－4－3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●福井県のエコファーマー向けに設計された肥料です</t>
-    <rPh sb="1" eb="4">
-      <t>フクイケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●早生、コシヒカリ、晩生に使用できます</t>
-    <rPh sb="1" eb="3">
-      <t>ワセ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オクテ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●各生育ステージにおいて効果的に肥効が発現します</t>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>コウカテキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●いちほまれの生育に合わせた肥効設計となっております</t>
-    <rPh sb="7" eb="9">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●肥効が持続し、肥効切れを防ぎます</t>
-    <rPh sb="1" eb="3">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジゾク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ヒコウギ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フセ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -861,53 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●水稲の生育に合わせて適した肥効が発現します</t>
-    <rPh sb="1" eb="3">
-      <t>スイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●発根、分げつに必要なリン酸成分を高く設計しています</t>
-    <rPh sb="1" eb="3">
-      <t>ハッコン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●あきさかりの生育に合わせた肥効設計となっております</t>
     <rPh sb="7" eb="9">
       <t>セイイク</t>
@@ -944,44 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●窒素、リン酸、加里をバランス良く配合</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●高窒素成分の省力型肥料</t>
-    <rPh sb="1" eb="2">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショウリョクガタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>140日</t>
     <rPh sb="3" eb="4">
       <t>ニチ</t>
@@ -989,74 +345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●速効性と緩効性をバランス良く配合しています</t>
-    <rPh sb="1" eb="4">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カンコウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●被覆140日タイプを配合</t>
-    <rPh sb="1" eb="3">
-      <t>ヒフク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●生育後半まで窒素が続く</t>
-    <rPh sb="1" eb="5">
-      <t>セイイクコウハン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●直播向けに最適な肥料です</t>
-    <rPh sb="1" eb="4">
-      <t>チョクハム</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイテキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●リン酸を抑えた設計となっています</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>直播日本晴</t>
     <rPh sb="0" eb="2">
       <t>チョクハ</t>
@@ -1071,35 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●日本晴の生育にわせた肥効設計となっております</t>
-    <rPh sb="1" eb="4">
-      <t>ニホンバレ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ヒコウセッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●直播栽培向けに設計された肥料です</t>
-    <rPh sb="1" eb="3">
-      <t>チョクハ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サイバイム</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>あきだわら344</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,34 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●窒素の含有量が高く、千粒重の増加が期待で行きます</t>
-    <rPh sb="1" eb="3">
-      <t>チッソ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リュウジュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>被覆尿素</t>
     <rPh sb="0" eb="2">
       <t>ヒフク</t>
@@ -1644,37 +875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●ﾘﾝ酸と微量要素が同時に施肥出来、順調な生育に役立ちます。</t>
-    <rPh sb="3" eb="4">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ビリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セヒ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュンチョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セイイク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヤクダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ｴｷｽﾄﾗｺｰﾄ864</t>
   </si>
   <si>
@@ -1691,114 +891,6 @@
   </si>
   <si>
     <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●初期肥効の充実は、茎数の確保を促し、収量の安定化・増加に</t>
-    <rPh sb="1" eb="3">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュウジツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケイスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクホ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウナガ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>アンテイカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　つながる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　効果的です</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●3種の被覆が分げつ期や幼穂形成期に発現し、茎や穂の充実に</t>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒフク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ヨウスイケイセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハツゲン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>クキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジュウジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●緩効性を多く配合しており、後半の肥効を重視し穂や粒数の充実が</t>
-    <rPh sb="1" eb="4">
-      <t>カンコウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウハン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウシ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツブスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジュウジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　期待できます</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1846,14 +938,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●多収米・飼料用米品種の多収穫品種の育成に適した組成で生産した</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　水稲一発BB肥料です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●初期から後半にかけて効く速効性肥料と4種類の安定溶出型の</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1915,10 +999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>容量:15㎏　比重:0.84</t>
     <rPh sb="7" eb="9">
       <t>ヒジュウ</t>
@@ -1933,16 +1013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●廃止予定</t>
-    <rPh sb="1" eb="3">
-      <t>ハイシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>容量:15㎏　比重:0.83</t>
     <rPh sb="7" eb="9">
       <t>ヒジュウ</t>
@@ -2049,6 +1119,804 @@
     <rPh sb="10" eb="12">
       <t>メイガラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●早生品種向けの生育に合わせて設計しております。</t>
+  </si>
+  <si>
+    <t>●初期肥効を充実させた設計の為、茎数確保を促し、収量の安定・</t>
+    <rPh sb="27" eb="29">
+      <t>アンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　増収が期待できます。</t>
+    <rPh sb="1" eb="3">
+      <t>ゾウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●NSｺｰﾄ早生N24に対して追肥時期の肥効を追加しております。</t>
+  </si>
+  <si>
+    <t>●初期分げつはNSｺｰﾄ早生N24と肥効は同等です。</t>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ワセ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●初期肥効としての速効性肥料と高いﾘﾝ酸成分により充実した有効茎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　の確保ができるよう設計しております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●NSｺｰﾄｺｼN20に対して追肥時期の肥効を追加しております。</t>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●初期分げつはNSｺｰﾄｺｼN20と肥効は同等です。</t>
+    <rPh sb="1" eb="3">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●他のNSコートに比べ後半の肥効を重視した晩生向けの肥料です。</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュウシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オクテ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●高窒素成分で省力的施肥が可能です。</t>
+    <rPh sb="1" eb="4">
+      <t>コウチッソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウリョクテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●有機態窒素と緩効態窒素がバランスよく含まれております。</t>
+    <rPh sb="1" eb="3">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●生育期間を通じて安定的な肥効を示すと共に登熟後半への肥料残り</t>
+    <rPh sb="1" eb="3">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウジュク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　も少なくなるよう設計しております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●直一発D24号に統合予定</t>
+    <rPh sb="1" eb="2">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●直一発D20号の高窒素版です。</t>
+    <rPh sb="1" eb="2">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウチッソ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素が高いため、投入量の削減や労力の軽減が可能です。</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ロウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●多収穫米、飼料用米、WCS向けに最適な配合です。</t>
+    <rPh sb="1" eb="4">
+      <t>タシュウカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シリョウヨウマイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素が高い為、投入量の削減や労力の軽減が可能です。</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウニュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ロウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●特に初期・中期の生育が旺盛になるよう設計しております。</t>
+    <rPh sb="1" eb="2">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チュウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●比較的温暖な地域(暖地)で使用すると効果的です。</t>
+    <rPh sb="1" eb="4">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンダン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダンチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●比較的冷涼な地域(寒地)で使用すると効果的です。</t>
+    <rPh sb="1" eb="4">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●直播での栽培をされる方におすすめです。</t>
+    <rPh sb="1" eb="3">
+      <t>チョクハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイバイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●リン酸を高くすることで、初期生育の充実が期待できます。</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●速効性と被覆肥料をブレンドした水稲元肥一発肥料です。</t>
+    <rPh sb="1" eb="4">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヒフクヒリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>スイトウモトゴエ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イッパツヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●穂肥期にしっかり肥効が発現するよう設計しているため穂の充実が</t>
+    <rPh sb="1" eb="3">
+      <t>ホゴエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●速効性窒素と複数の日数タイプの被覆尿素を配合してます。</t>
+    <rPh sb="10" eb="12">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●有機質肥料が含まれておりますので食味向上が期待できます。</t>
+    <rPh sb="1" eb="3">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショクミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　く作物にも優しい肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素の流亡が少なく無駄のない肥効となりますので、環境にやさし</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リュウボウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●福井県のｴｺﾌｧｰﾏｰ米に対応できるよう設計された肥料です。</t>
+    <rPh sb="1" eb="4">
+      <t>フクイケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●コシヒカリの生育に対応した肥効で設計しております。</t>
+    <rPh sb="7" eb="9">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●福井県のｴｺﾌｧｰﾏｰ米に対応できるよう設計された肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●いちほまれの生育に対応した肥効で設計しております。</t>
+    <rPh sb="7" eb="9">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素、リン酸、加里をバランス良く配合してます。</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●生育期間の長い品種や中晩生品種向けに設計された肥料です。</t>
+    <rPh sb="1" eb="5">
+      <t>セイイクキカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オクテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●福井県のエコ基準に合わせて化学肥料2割低減した肥料です。</t>
+    <rPh sb="1" eb="4">
+      <t>フクイケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カガクヒリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ワリテイゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●日本晴の直播の生育に合わせた肥効設計となっております</t>
+    <rPh sb="1" eb="4">
+      <t>ニホンバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカマキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイイク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●直播栽培向けに設計された肥料です。</t>
+    <rPh sb="1" eb="3">
+      <t>チョクハ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイバイム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●窒素の含有量が高く、千粒重の増加が期待できます。</t>
+    <rPh sb="1" eb="3">
+      <t>チッソ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リュウジュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　した水稲一発BB肥料です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●多収米・飼料用米品種の多収穫品種の育成に適した組成で設計</t>
+    <rPh sb="27" eb="29">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　被覆尿素とピンポイントに溶出する被覆尿素をバランス良く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ブレンドしております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●粒張りの向上：リン酸、苦土、その他微量要素の効果によって</t>
+    <rPh sb="1" eb="3">
+      <t>ツブバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ビリョウヨウソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●食味の向上：苦土・その他微量要素の効果によって、稲体内養分の</t>
+    <rPh sb="1" eb="3">
+      <t>ショクミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ビリョウヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イネ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　光合成が促進され、異常気象下でも粒張りの良化に役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　消化効率が良くなり、良食味米の生産に役立ちます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2061,7 +1929,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2079,15 +1947,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2116,7 +1975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2147,35 +2006,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2555,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2579,7 +2441,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2588,28 +2450,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -2636,30 +2498,30 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4">
         <v>12</v>
@@ -2671,10 +2533,10 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
@@ -2686,42 +2548,39 @@
         <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>200</v>
+        <v>181</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="U2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G3" s="4">
         <v>12.2</v>
@@ -2733,10 +2592,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -2748,42 +2607,36 @@
         <v>15</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="G4" s="4">
         <v>8.1</v>
@@ -2795,13 +2648,13 @@
         <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="M4" s="8">
         <v>0.84</v>
@@ -2810,36 +2663,39 @@
         <v>15</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>24</v>
+        <v>186</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="U4" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4">
         <v>8.1</v>
@@ -2851,13 +2707,13 @@
         <v>13</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" s="8">
         <v>0.79</v>
@@ -2866,36 +2722,36 @@
         <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="U5" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="G6" s="4">
         <v>5.5</v>
@@ -2907,13 +2763,13 @@
         <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M6" s="8">
         <v>0.79</v>
@@ -2922,36 +2778,36 @@
         <v>15</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="U6" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -2963,13 +2819,13 @@
         <v>13</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M7" s="8">
         <v>0.79</v>
@@ -2978,94 +2834,99 @@
         <v>15</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>34</v>
+        <v>192</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="U7" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="C8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="15">
         <v>7.2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="16">
         <v>12.8</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="I8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="19">
         <v>0.84</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="U8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>104</v>
+      <c r="O8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="U8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4">
         <v>7.2</v>
@@ -3074,16 +2935,16 @@
         <v>12.8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M9" s="8">
         <v>0.84</v>
@@ -3092,91 +2953,96 @@
         <v>15</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>223</v>
+        <v>203</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="U9" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="11" t="s">
+    <row r="10" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="15">
         <v>6</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="16">
         <v>18</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="16">
+      <c r="J10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="19">
         <v>0.83</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="U10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>104</v>
+      <c r="O10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="U10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G11" s="4">
         <v>5.9</v>
@@ -3188,10 +3054,10 @@
         <v>13</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>14</v>
@@ -3203,42 +3069,36 @@
         <v>15</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="U11" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G12" s="4">
         <v>11.3</v>
@@ -3247,13 +3107,13 @@
         <v>18.7</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>14</v>
@@ -3265,42 +3125,36 @@
         <v>15</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U12" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -3309,16 +3163,16 @@
         <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M13" s="8">
         <v>0.95</v>
@@ -3327,36 +3181,36 @@
         <v>15</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4">
         <v>8.1</v>
@@ -3368,13 +3222,13 @@
         <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M14" s="8">
         <v>0.84</v>
@@ -3383,57 +3237,57 @@
         <v>15</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" t="s">
-        <v>102</v>
-      </c>
       <c r="V14" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="19">
+        <v>115</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="11">
         <v>10.199999999999999</v>
       </c>
       <c r="H15" s="5">
         <v>15.8</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M15" s="8">
         <v>0.84</v>
@@ -3442,39 +3296,36 @@
         <v>15</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="U15" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="G16" s="4">
         <v>6.6</v>
@@ -3486,13 +3337,13 @@
         <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M16" s="8">
         <v>0.83</v>
@@ -3501,39 +3352,39 @@
         <v>15</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>64</v>
+        <v>209</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="U16" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="G17" s="4">
         <v>2.5</v>
@@ -3545,13 +3396,13 @@
         <v>13</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M17" s="8">
         <v>0.75</v>
@@ -3560,39 +3411,36 @@
         <v>15</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="U17" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4">
         <v>5</v>
@@ -3604,13 +3452,13 @@
         <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M18" s="8">
         <v>0.75</v>
@@ -3619,39 +3467,39 @@
         <v>15</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="U18" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4">
         <v>9.8000000000000007</v>
@@ -3660,16 +3508,16 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M19" s="8">
         <v>0.85</v>
@@ -3678,39 +3526,36 @@
         <v>15</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="U19" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="G20" s="4">
         <v>5.9</v>
@@ -3722,13 +3567,13 @@
         <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M20" s="8">
         <v>0.82</v>
@@ -3737,39 +3582,39 @@
         <v>15</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="U20" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="G21" s="4">
         <v>9.3000000000000007</v>
@@ -3781,13 +3626,13 @@
         <v>13</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M21" s="8">
         <v>0.8</v>
@@ -3796,36 +3641,36 @@
         <v>15</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="U21" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4">
         <v>13.9</v>
@@ -3837,13 +3682,13 @@
         <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="M22" s="8">
         <v>0.83</v>
@@ -3852,39 +3697,36 @@
         <v>15</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="G23" s="4">
         <v>2.2999999999999998</v>
@@ -3896,13 +3738,13 @@
         <v>13</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M23" s="8">
         <v>0.78</v>
@@ -3911,39 +3753,36 @@
         <v>15</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="U23" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3955,13 +3794,13 @@
         <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M24" s="8">
         <v>0.79</v>
@@ -3970,39 +3809,36 @@
         <v>15</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="U24" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4">
         <v>2.2999999999999998</v>
@@ -4014,13 +3850,13 @@
         <v>13</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M25" s="8">
         <v>0.77</v>
@@ -4029,39 +3865,36 @@
         <v>15</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="U25" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G26" s="4">
         <v>16.600000000000001</v>
@@ -4073,13 +3906,13 @@
         <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M26" s="8">
         <v>0.8</v>
@@ -4088,39 +3921,39 @@
         <v>15</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="U26" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="G27" s="4">
         <v>7.7</v>
@@ -4129,48 +3962,48 @@
         <v>12.3</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="G28" s="4">
         <v>7.7</v>
@@ -4179,48 +4012,48 @@
         <v>12.3</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="U28" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="G29" s="4">
         <v>10.4</v>
@@ -4229,51 +4062,54 @@
         <v>22.6</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="U29" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -4285,13 +4121,13 @@
         <v>13</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="M30" s="8">
         <v>0.76</v>
@@ -4300,45 +4136,45 @@
         <v>15</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>209</v>
+        <v>53</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="T30" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="U30" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -4347,16 +4183,16 @@
         <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="M31" s="8">
         <v>0.76</v>
@@ -4365,45 +4201,45 @@
         <v>15</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>208</v>
+        <v>137</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="T31" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="U31" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="G32" s="4">
         <v>10</v>
@@ -4412,92 +4248,101 @@
         <v>15</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="U32" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>193</v>
+        <v>137</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="U33" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
@@ -4506,58 +4351,58 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4">
         <v>8.1</v>
@@ -4569,13 +4414,13 @@
         <v>13</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M35" s="8">
         <v>0.84</v>
@@ -4584,21 +4429,21 @@
         <v>15</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="U35" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1048574" spans="21:21" x14ac:dyDescent="0.55000000000000004">
       <c r="U1048574" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E7650-080E-4A27-A2C2-A3AD0720A0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72E1C9-0EEE-4783-A7D7-0A38C6D8434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="231">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -1917,6 +1917,10 @@
   </si>
   <si>
     <t>　消化効率が良くなり、良食味米の生産に役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量:10㎏</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2418,7 +2422,7 @@
   <dimension ref="A1:V1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3968,7 +3972,7 @@
         <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>98</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB72E1C9-0EEE-4783-A7D7-0A38C6D8434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489C882-5208-4F90-AD2A-34BF7F67EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="232">
   <si>
     <t>肥料名称</t>
     <rPh sb="0" eb="2">
@@ -741,9 +741,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1921,6 +1918,14 @@
   </si>
   <si>
     <t>容量:10㎏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2422,7 +2427,7 @@
   <dimension ref="A1:V1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2540,7 +2545,7 @@
         <v>59</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
@@ -2555,13 +2560,13 @@
         <v>53</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="U2" t="s">
         <v>56</v>
@@ -2599,7 +2604,7 @@
         <v>59</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>14</v>
@@ -2614,10 +2619,10 @@
         <v>53</v>
       </c>
       <c r="P3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="U3" t="s">
         <v>56</v>
@@ -2655,7 +2660,7 @@
         <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
@@ -2673,10 +2678,10 @@
         <v>19</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="U4" t="s">
         <v>56</v>
@@ -2714,7 +2719,7 @@
         <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2729,10 +2734,10 @@
         <v>53</v>
       </c>
       <c r="P5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="U5" t="s">
         <v>56</v>
@@ -2770,7 +2775,7 @@
         <v>59</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -2785,10 +2790,10 @@
         <v>53</v>
       </c>
       <c r="P6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="U6" t="s">
         <v>56</v>
@@ -2826,7 +2831,7 @@
         <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>24</v>
@@ -2841,13 +2846,13 @@
         <v>53</v>
       </c>
       <c r="P7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="U7" t="s">
         <v>56</v>
@@ -2885,7 +2890,7 @@
         <v>59</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>14</v>
@@ -2900,13 +2905,13 @@
         <v>53</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S8" s="20"/>
       <c r="U8" s="13" t="s">
@@ -2945,7 +2950,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>22</v>
@@ -2960,10 +2965,10 @@
         <v>53</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U9" t="s">
         <v>56</v>
@@ -3001,7 +3006,7 @@
         <v>59</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>22</v>
@@ -3016,13 +3021,13 @@
         <v>53</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S10" s="20"/>
       <c r="U10" s="13" t="s">
@@ -3034,7 +3039,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -3061,7 +3066,7 @@
         <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>14</v>
@@ -3076,10 +3081,10 @@
         <v>53</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U11" t="s">
         <v>56</v>
@@ -3117,7 +3122,7 @@
         <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>14</v>
@@ -3132,10 +3137,10 @@
         <v>53</v>
       </c>
       <c r="P12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="U12" t="s">
         <v>56</v>
@@ -3173,7 +3178,7 @@
         <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>24</v>
@@ -3188,10 +3193,10 @@
         <v>53</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U13" t="s">
         <v>56</v>
@@ -3208,7 +3213,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>86</v>
@@ -3229,7 +3234,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>24</v>
@@ -3247,10 +3252,10 @@
         <v>41</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U14" t="s">
         <v>56</v>
@@ -3288,7 +3293,7 @@
         <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>24</v>
@@ -3303,10 +3308,10 @@
         <v>53</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U15" t="s">
         <v>56</v>
@@ -3344,7 +3349,7 @@
         <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -3359,13 +3364,13 @@
         <v>53</v>
       </c>
       <c r="P16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="U16" t="s">
         <v>56</v>
@@ -3403,7 +3408,7 @@
         <v>59</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -3418,10 +3423,10 @@
         <v>53</v>
       </c>
       <c r="P17" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="U17" t="s">
         <v>56</v>
@@ -3450,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
@@ -3459,7 +3464,7 @@
         <v>59</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3474,13 +3479,13 @@
         <v>53</v>
       </c>
       <c r="P18" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="R18" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U18" t="s">
         <v>56</v>
@@ -3518,7 +3523,7 @@
         <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>18</v>
@@ -3533,10 +3538,10 @@
         <v>53</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U19" t="s">
         <v>56</v>
@@ -3574,7 +3579,7 @@
         <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3595,7 +3600,7 @@
         <v>43</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U20" t="s">
         <v>56</v>
@@ -3633,7 +3638,7 @@
         <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>18</v>
@@ -3648,10 +3653,10 @@
         <v>53</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U21" t="s">
         <v>56</v>
@@ -3689,7 +3694,7 @@
         <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>45</v>
@@ -3704,10 +3709,10 @@
         <v>53</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U22" t="s">
         <v>56</v>
@@ -3736,7 +3741,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H23" s="5">
-        <v>1.7</v>
+        <v>13.7</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>13</v>
@@ -3745,7 +3750,7 @@
         <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>18</v>
@@ -3760,10 +3765,10 @@
         <v>53</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>
@@ -3786,7 +3791,7 @@
         <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="G24" s="4">
         <v>6.4</v>
@@ -3801,7 +3806,7 @@
         <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>18</v>
@@ -3816,10 +3821,10 @@
         <v>53</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U24" t="s">
         <v>56</v>
@@ -3857,7 +3862,7 @@
         <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>18</v>
@@ -3872,10 +3877,10 @@
         <v>53</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U25" t="s">
         <v>56</v>
@@ -3895,7 +3900,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>84</v>
@@ -3913,7 +3918,7 @@
         <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>18</v>
@@ -3931,10 +3936,10 @@
         <v>50</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U26" t="s">
         <v>56</v>
@@ -3972,7 +3977,7 @@
         <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>98</v>
@@ -4022,7 +4027,7 @@
         <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>98</v>
@@ -4034,7 +4039,7 @@
         <v>53</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U28" t="s">
         <v>56</v>
@@ -4054,10 +4059,10 @@
         <v>124</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="4">
         <v>10.4</v>
@@ -4072,10 +4077,10 @@
         <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>15</v>
@@ -4084,13 +4089,13 @@
         <v>53</v>
       </c>
       <c r="P29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q29" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Q29" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="R29" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U29" t="s">
         <v>56</v>
@@ -4101,7 +4106,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>49</v>
@@ -4110,10 +4115,10 @@
         <v>124</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -4128,10 +4133,10 @@
         <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M30" s="8">
         <v>0.76</v>
@@ -4143,19 +4148,19 @@
         <v>53</v>
       </c>
       <c r="P30" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S30" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="Q30" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S30" s="9" t="s">
+      <c r="T30" t="s">
         <v>224</v>
-      </c>
-      <c r="T30" t="s">
-        <v>225</v>
       </c>
       <c r="U30" t="s">
         <v>56</v>
@@ -4166,19 +4171,19 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G31" s="4">
         <v>4</v>
@@ -4187,16 +4192,16 @@
         <v>29</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M31" s="8">
         <v>0.76</v>
@@ -4205,22 +4210,22 @@
         <v>15</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="T31" t="s">
         <v>155</v>
-      </c>
-      <c r="T31" t="s">
-        <v>156</v>
       </c>
       <c r="U31" t="s">
         <v>56</v>
@@ -4231,19 +4236,19 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="4">
         <v>10</v>
@@ -4258,22 +4263,22 @@
         <v>59</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="U32" t="s">
         <v>56</v>
@@ -4284,46 +4289,46 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P33" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="S33" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="U33" t="s">
         <v>56</v>
@@ -4334,19 +4339,19 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
@@ -4355,34 +4360,34 @@
         <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" t="s">
@@ -4394,13 +4399,13 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>86</v>
@@ -4421,7 +4426,7 @@
         <v>59</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>24</v>
@@ -4436,7 +4441,7 @@
         <v>53</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U35" t="s">
         <v>56</v>

--- a/銘柄データ_BB.xlsx
+++ b/銘柄データ_BB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ono\Desktop\パンフレット作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489C882-5208-4F90-AD2A-34BF7F67EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15F4A4-5C39-4B0D-8E4C-17117B9498EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="540" windowWidth="9600" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄データ" sheetId="1" r:id="rId1"/>
@@ -2426,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2819,7 +2819,7 @@
         <v>88</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="H7" s="5">
         <v>8.5</v>
@@ -3045,7 +3045,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>79</v>
